--- a/stop list/ТРБТ.xlsx
+++ b/stop list/ТРБТ.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="344">
   <si>
     <t xml:space="preserve">Артикул</t>
   </si>
@@ -35,16 +35,1034 @@
   </si>
   <si>
     <t xml:space="preserve">Комментарий</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ГРЫЗ ПЕСОК CHINCHILLA 1.3KG-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ГРЫЗ CLASSIC CAVIA 0.5KG-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ГРЫЗ CLASSIC CAVIA 0.5KG-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5410340616123-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ГРЫЗ CLASSIC CUNI 0.5KG-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ГРЫЗ CLASSIC HAMSTER 0.5KG-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ГРЫЗ CLASSIC HAMSTER 0.5KG-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5410340616147-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ГРЫЗ CLASSIC ZERO 20KG-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ГРЫЗ COMPLETE CAVIA 0.5KG-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ГРЫЗ COMPLETE CAVIA 0.5KG-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5410340612514-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ГРЫЗ COMPLETE CAVIA 0.5KG-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5410340612514-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ГРЫЗ COMPLETE CAVIA 0.5KG-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5410340612514-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ГРЫЗ COMPLETE CAVIA 0.5KG-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5410340612514-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ГРЫЗ COMPLETE CAVIA 1.75KG-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ГРЫЗ COMPLETE CAVIA 3KG-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ГРЫЗ COMPLETE CAVIA 8KG-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ГРЫЗ COMPLETE CHINCH DEGU 0.5KG-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ГРЫЗ COMPLETE CHINCH DEGU 0.5KG-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5410340612552-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ГРЫЗ COMPLETE CHINCH DEGU 0.5KG-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5410340612552-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ГРЫЗ COMPLETE CHINCH DEGU 0.5KG-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5410340612552-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ГРЫЗ COMPLETE CHINCH DEGU 0.5KG-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5410340612552-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ГРЫЗ COMPLETE CHINCH DEGU 1.75KG-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ГРЫЗ COMPLETE CHINCH DEGU 8KG-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ГРЫЗ COMPLETE CUNI ADULT 0.5KG-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ГРЫЗ COMPLETE CUNI ADULT 0.5KG-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5410340612507-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ГРЫЗ COMPLETE CUNI ADULT 0.5KG-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5410340612507-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ГРЫЗ COMPLETE CUNI ADULT 0.5KG-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5410340612507-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ГРЫЗ COMPLETE CUNI ADULT 0.5KG-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5410340612507-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ГРЫЗ COMPLETE CUNI ADULT 1.75KG-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ГРЫЗ COMPLETE CUNI ADULT 3KG-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ГРЫЗ COMPLETE CUNI ADULT 8KG-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ГРЫЗ COMPLETE CUNI JUNIOR 0.5KG-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ГРЫЗ COMPLETE CUNI JUNIOR 0.5KG-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5410340613085-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ГРЫЗ COMPLETE CUNI SENS 0.5KG-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ГРЫЗ COMPLETE CUNI SENS 0.5KG-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5410340613108-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ГРЫЗ COMPLETE CUNI SENS 0.5KG-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5410340613108-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ГРЫЗ COMPLETE CUNI SENS 0.5KG-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5410340613108-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ГРЫЗ COMPLETE CUNI SENS 0.5KG-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5410340613108-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ГРЫЗ COMPLETE HAMSTER GERBIL 0.5KG-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ГРЫЗ COMPLETE RAT MOUSE 0.5KG-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ГРЫЗ COMPLETE RAT MOUSE 2KG-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ГРЫЗ CRISPY MUSLI GUINEA 0.4KG-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ГРЫЗ CRISPY MUSLI GUINEA 0.4KG-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5410340616987-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ГРЫЗ CRISPY MUSLI GUINEA 0.4KG-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5410340616987-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ГРЫЗ CRISPY MUSLI GUINEA 1KG-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ГРЫЗ CRISPY MUSLI GUINEA 1KG-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5410340617113-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ГРЫЗ CRISPY MUSLI GUINEA 1KG-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5410340617113-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ГРЫЗ CRISPY MUSLI GUINEA 20KG-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ГРЫЗ CRISPY MUSLI HAMSTER 0.4KG-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ГРЫЗ CRISPY MUSLI HAMSTER 0.4KG-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5410340616994-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ГРЫЗ CRISPY MUSLI HAMSTER 0.4KG-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5410340616994-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ГРЫЗ CRISPY MUSLI HAMSTER 1KG-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ГРЫЗ CRISPY MUSLI HAMSTER 1KG-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5410340617212-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ГРЫЗ CRISPY MUSLI HAMSTER 1KG-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5410340617212-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ГРЫЗ CRISPY MUSLI HAMSTER 1KG-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5410340617212-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ГРЫЗ CRISPY MUSLI HAMSTER 20KG-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ГРЫЗ CRISPY MUSLI RABBIT 0.4KG-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ГРЫЗ CRISPY MUSLI RABBIT 0.4KG-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5410340616970-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ГРЫЗ CRISPY MUSLI RABBIT 0.4KG-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5410340616970-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ГРЫЗ CRISPY MUSLI RABBIT 1KG-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ГРЫЗ CRISPY MUSLI RABBIT 1KG-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5410340617014-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ГРЫЗ CRISPY MUSLI RABBIT 20KG-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ГРЫЗ CRISPY PELLETS CHINCH DEGU 1KG-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ГРЫЗ CRISPY PELLETS CHINCH DEGU 1KG-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5410340615065-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ГРЫЗ CRISPY PELLETS CHINCH DEGU 1KG-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5410340615065-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ГРЫЗ CRISPY PELLETS CHINCH DEGU 1KG-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5410340615065-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ГРЫЗ CRISPY PELLETS RATMOUSE 1KG-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ГРЫЗ CRISPY PELLETS RATMOUSE 1KG-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5410340615201-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ГРЫЗ CRISPY PELLETS RATMOUSE 1KG-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5410340615201-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ГРЫЗ CRISPY PELLETS RATMOUSE 1KG-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5410340615201-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ГРЫЗ CRISPY PELLETS RATMOUSE 1KG-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5410340615201-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ГРЫЗ CRISPY SNACK FIBRES 0.65KG-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ГРЫЗ CRISPY SNACK FIBRES 0.65KG-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5410340617359-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ГРЫЗ CRISPY SNACK FIBRES 0.65KG-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5410340617359-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ГРЫЗ CRISPY SNACK FIBRES 15KG-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ГРЫЗ CRISPY SNACK POPCORN 0.65KG-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ГРЫЗ CRISPY SNACK POPCORN 0.65KG-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5410340617304-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ГРЫЗ CRISPY SNACK POPCORN 10KG-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ГРЫЗ CRISPY STICKS 4 вкуса 1шт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1711279760</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ГРЫЗ CRISPY STICKS лесные фрукты 0.11KG 1шт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ГРЫЗ CRISPY STICKS морковь петрушка 0.11KG 1шт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ГРЫЗ CRISPY STICKS поп мед 0.1KG 1шт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ГРЫЗ CRISPY STICKS фрукты 0.11KG 1шт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ГРЫЗ NATURE CAVIA 0.7KG-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ГРЫЗ NATURE CAVIA 0.7KG-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5410340614099-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ГРЫЗ NATURE CAVIA 0.7KG-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5410340614099-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ГРЫЗ NATURE CAVIA 0.7KG-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5410340614099-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ГРЫЗ NATURE CHINCH 0.7KG-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ГРЫЗ NATURE CHINCH 0.7KG-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5410340614136-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ГРЫЗ NATURE CHINCH 0.7KG-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5410340614136-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ГРЫЗ NATURE CHINCH 0.7KG-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5410340614136-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ГРЫЗ NATURE CUNI 0.7KG-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ГРЫЗ NATURE CUNI 0.7KG-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5410340614488-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ГРЫЗ NATURE CUNI 0.7KG-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5410340614488-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ГРЫЗ NATURE CUNI 0.7KG-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5410340614488-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ГРЫЗ NATURE CUNI JUNIOR 0.7KG-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ГРЫЗ NATURE CUNI JUNIOR 0.7KG-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5410340614075-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ГРЫЗ NATURE CUNI JUNIOR 0.7KG-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5410340614075-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ГРЫЗ NATURE CUNI JUNIOR 0.7KG-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5410340614075-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ГРЫЗ NATURE DEGU 0.7KG-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ГРЫЗ NATURE DEGU 0.7KG-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5410340614167-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ГРЫЗ NATURE DEGU 0.7KG-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5410340614167-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ГРЫЗ NATURE DEGU 0.7KG-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5410340614167-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ГРЫЗ NATURE SNACK CEREALS 0.5KG-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ГРЫЗ NATURE SNACK CEREALS 0.5KG-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5410340614389-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ГРЫЗ NATURE SNACK FIBRES 0.5KG-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ГРЫЗ NATURE SNACK FIBRES 0.5KG-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5410340614402-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ГРЫЗ NATURE SNACK FIBRES 0.5KG-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5410340614402-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ГРЫЗ ORIGINAL NATURE CAVIA 0.75KG-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ГРЫЗ ORIGINAL NATURE CHINCH 0.75KG-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ГРЫЗ ORIGINAL NATURE CHINCH 0.75KG-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5410340614594-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ГРЫЗ ORIGINAL NATURE CHINCH 0.75KG-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5410340614594-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ГРЫЗ ORIGINAL NATURE CHINCH 0.75KG-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5410340614594-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ГРЫЗ ORIGINAL NATURE CUNI 0.75KG-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ КОТ LARA ВЗР Говядина 10кг 1шт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ КОТ LARA ВЗР Говядина 2кг 1шт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ КОТ LARA ВЗР Курица Индейка 10кг 1шт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ КОТ LARA ВЗР Курица Индейка 2кг 1шт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ КОТ LARA ВЗР Курица Индейка ДОМ 2кг 1шт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ КОТ LARA ВЗР Лосось 10кг 1шт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ КОТ LARA ВЗР Лосось 2кг 1шт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ КОТ LARA ВЗР ПЗМ Курица 2кг 1шт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ КОТ LARA ВЗР СТРЗ Курица 10кг 1шт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ КОТ LARA ВЗР СТРЗ Курица 2кг 1шт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ КОТ LARA ВЗР Ягнёнок 10кг 1шт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ КОТ LARA ВЗР Ягнёнок 2кг 1шт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ КОТ LARA МОЛ Курица 2кг 1шт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ КОТ OKE ВЗР Рыба 10кг 1шт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ КОТ OKE ВЗР Рыба 4кг 1шт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ КОТ OL ВЗР Курица 2.5кг 1шт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ КОТ OL ВЗР Лосось 2.5кг 1шт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ КОТ OL ВЗР Лосось 7.5кг 1шт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ КОТ OL ВЗР СТРЗ Курица 2.5кг 1шт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ КОТ OL ВЗР СТРЗ Курица 7.5кг 1шт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ КОТ OL МОЛ Курица 2.5кг 1шт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ПТИЦ CLASSIC BUDGIES 0.5KG-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ПТИЦ CLASSIC BUDGIES 0.5KG-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5410340211526-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ПТИЦ CLASSIC BUDGIES 0.5KG-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5410340211526-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ПТИЦ CLASSIC BUDGIES 0.5KG-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5410340211526-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ПТИЦ CLASSIC BUDGIES 20KG-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ПТИЦ PRESTIGE BUDGIES 1KG-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ПТИЦ PRESTIGE BUDGIES 1KG-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5410340216200-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ПТИЦ PRESTIGE BUDGIES 1KG-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5410340216200-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ПТИЦ PRESTIGE BUDGIES 20KG-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ПТИЦ PRESTIGE CANARIES 1KG-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ПТИЦ PRESTIGE CANARIES 1KG-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5410340210406-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ПТИЦ PRESTIGE CANARIES 1KG-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5410340210406-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ПТИЦ PRESTIGE CANARIES 20KG-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ПТИЦ PRESTIGE DOVE 1KG-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ПТИЦ PRESTIGE DOVE 1KG-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5410340115053-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ПТИЦ PRESTIGE FINCHES 1KG-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ПТИЦ PRESTIGE FINCHES 1KG-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5410340215203-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ПТИЦ PRESTIGE FINCHES 20KG-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ПТИЦ PRESTIGE KRISTAL SHELL SAND 2KG-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ПТИЦ PRESTIGE PARAKEETS 1KG-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ПТИЦ PRESTIGE PARAKEETS 1KG-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5410340218808-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ПТИЦ PRESTIGE PARAKEETS 1KG-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5410340218808-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ПТИЦ PRESTIGE PARAKEETS 1KG-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5410340218808-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ПТИЦ PRESTIGE PARAKEETS 20KG-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ПТИЦ PRESTIGE PARAKEETS PROMO 1.2KG-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ПТИЦ PRESTIGE PARAKEETS PROMO 1.2KG-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5410340219072-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ПТИЦ PRESTIGE PARAKEETS PROMO 1.2KG-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5410340219072-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ПТИЦ PRESTIGE PARAKEETS PROMO 1.2KG-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5410340219072-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ПТИЦ PRESTIGE PARROTS 15KG-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ПТИЦ PRESTIGE PARROTS 1KG-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ПТИЦ PRESTIGE PARROTS 1KG-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5410340217955-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ПТИЦ PRESTIGE PARROTS 1KG-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5410340217955-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ПТИЦ PRESTIGE PARROTS 1KG-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5410340217955-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ПТИЦ PRESTIGE PARROTS PROMO 16.5KG-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ПТИЦ PRESTIGE SEPIA 0.08KG-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ПТИЦ PRESTIGE STICKS EGG THYME 0.06KG-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ПТИЦ PRESTIGE STICKS EXFR 0.06KG-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ПТИЦ PRESTIGE STICKS FORFR 0.06KG-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ПТИЦ PRESTIGE STICKS FRUIT FLOWER 0.06KG-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ПТИЦ PRESTIGE STICKS HONEY 0.06KG-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ПТИЦ PRESTIGE STICKS MIX 0.06KG-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1393371709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ПТИЦ PRESTIGE STICKS MIX2 0.06KG-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1617715038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ПТИЦ PRESTIGE STICKS NUTS RAISIN 0.06KG-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ПТИЦ PRESTIGE STICKS SHELL 0.06KG-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ ПТИЦ PRESTIGE STICKS VEG DAN 0.06KG-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ СОБ HL ВЗР ВСЕ Говядина 15кг 1шт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ СОБ HL ВЗР ВСЕ Говядина 3кг 1шт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ СОБ HL ВЗР ВСЕ Лосось 15кг 1шт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ СОБ HL ВЗР ВСЕ Лосось 3кг 1шт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ СОБ HL ВЗР ВСЕ Ягнёнок 15кг 1шт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ СОБ HL ВЗР ВСЕ Ягнёнок 3кг 1шт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ СОБ HL ВЗР МЕЛК Ягнёнок 3кг 1шт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ СОБ HL МОЛ ВСЕ курица 3кг 1шт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ СОБ OKE ВЗР ВСЕ Ягненок Рис 20кг 1шт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ СОБ OKE МОЛ ВСЕ Мясо 10кг 1шт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ СОБ OKE DK ВЗР ВСЕ Мясо 10кг 1шт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ СОБ OL ВЗР МЕЛК Лосось Рис 2.5кг 1шт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ СОБ OL ВЗР МЕЛК Лосось Рис 7.5кг 1шт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ СОБ OL ВЗР МЕЛК Ягнёнок Рис 2.5кг 1шт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ СОБ OL ВЗР МЕЛК Ягнёнок Рис 7.5кг 1шт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ СОБ OL ВЗР СР КР Лосось Рис 12.5кг 1шт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ СОБ OL ВЗР СР КР Ягнёнок Рис 12.5кг 1шт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ СОБ OL МОЛ ВСЕ Лосось Рис 12.5кг 1шт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ СОБ OL МОЛ ВСЕ Лосось Рис 2.5кг 1шт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ СОБ OL Breeder ВЗР ВСЕ Ягнёнок Рис 20кг 1шт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ NECON КОТ ВЗР индейка рис 10кг 1шт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ NECON КОТ ВЗР лосось рис 10кг 1шт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ NECON КОТ ВЗР СТРЗ индейка рис 1.5кг 1шт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ NECON КОТ ВЗР СТРЗ индейка рис 10кг 1шт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ NECON КОТ ВЗР СТРЗ рыба криль 1.5кг 1шт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ NECON КОТ ВЗР СТРЗ рыба криль 10кг 1шт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ NECON КОТ ВЗР СТРЗ свинина рис 1.5кг 1шт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ NECON КОТ ВЗР СТРЗ свинина рис 10кг 1шт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ NECON КОТ ВЗР СТРЗ утка рис 1.5кг 1шт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ NECON КОТ ВЗР СТРЗ утка рис 10кг 1шт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ NECON КОТ МОЛ индейка рис 0.4кг 1шт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ NECON КОТ МОЛ индейка рис 1.5кг 1шт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ NECON КОТ МОЛ индейка рис 10кг 1шт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ NECON МАСЛО RICETTA 1 150мл 1шт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ NECON МАСЛО RICETTA 1 250мл 1шт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ NECON МАСЛО RICETTA 1 500мл 1шт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ NECON МАСЛО RICETTA 2 150мл 1шт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ NECON МАСЛО RICETTA 2 250мл 1шт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ NECON МАСЛО RICETTA 2 500мл 1шт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ NECON МАСЛО RICETTA 2 950мл 1шт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ NECON МАСЛО RICETTA 4 150мл 1шт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ NECON МАСЛО RICETTA 4 250мл 1шт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ NECON МАСЛО RICETTA 5 150мл 1шт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ NECON МАСЛО RICETTA 5 250мл 1шт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ NECON МАСЛО RICETTA 5 500мл 1шт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ NECON МАСЛО RICETTA 6 150мл 1шт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ NECON МАСЛО RICETTA 6 250мл 1шт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ NECON МАСЛО RICETTA 6 500мл 1шт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ NECON СОБ ВЗР индейка рис 12кг 1шт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ NECON СОБ ВЗР индейка рис 20кг 1шт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ NECON СОБ ВЗР индейка рис 3кг 1шт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ NECON СОБ ВЗР МЕЛК Индейка Рис 0.8кг 1шт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ NECON СОБ ВЗР МЕЛК Индейка Рис 10кг 1шт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ NECON СОБ ВЗР МЕЛК Индейка Рис 2кг 1шт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ NECON СОБ ВЗР МЕЛК Свинина Рис 0.8кг 1шт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ NECON СОБ ВЗР МЕЛК Свинина Рис 10кг 1шт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ NECON СОБ ВЗР МЕЛК Свинина Рис 2кг 1шт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ NECON СОБ ВЗР оленина картофель 12кг 1шт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ NECON СОБ ВЗР оленина картофель 20кг 1шт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ NECON СОБ ВЗР оленина картофель 3кг 1шт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ NECON СОБ ВЗР рыба рис 12кг 1шт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ NECON СОБ ВЗР рыба рис 3кг 1шт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ NECON СОБ ВЗР свинина рис 12кг 1шт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ NECON СОБ ВЗР свинина рис 20кг 1шт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ NECON СОБ ВЗР свинина рис 3кг 1шт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ NECON СОБ ВЗР ягненок рис 12кг 1шт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ NECON СОБ ВЗР ягненок рис 20кг 1шт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ NECON СОБ ВЗР ягненок рис 3кг 1шт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ NECON СОБ МОЛ ВСЕ Свинина Рис 12кг 1шт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ NECON СОБ МОЛ ВСЕ Свинина Рис 3кг 1шт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ NECON СОБ МОЛ МЕЛК Индейка Рис 0.8кг 1шт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ NECON СОБ МОЛ МЕЛК Индейка Рис 2кг 1шт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ NECON СОБ ПОЖ ВЕС Свинина Рис 12кг 1шт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ NECON СОБ ПОЖ ВЕС Свинина Рис 3кг 1шт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ NECON СОБ ПОЖ МЕЛК Утка Рис 0.8кг 1шт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ NECON СОБ ПОЖ МЕЛК Утка Рис 10кг 1шт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ NECON СОБ ПОЖ МЕЛК Утка Рис 2кг 1шт</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="0"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -74,6 +1092,13 @@
       <b val="true"/>
       <sz val="11"/>
       <name val="Cambria"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="7.5"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
     </font>
@@ -127,7 +1152,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -140,8 +1165,16 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -267,10 +1300,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F257"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -302,7 +1335,2052 @@
       <c r="F1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3"/>
+      <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="4" t="n">
+        <v>5410340611449</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4" t="n">
+        <v>5410340616123</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="4" t="n">
+        <v>5410340616109</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>5410340616147</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="4" t="n">
+        <v>5410340616062</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="4" t="n">
+        <v>5410340612514</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="4" t="n">
+        <v>5410340613122</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="4" t="n">
+        <v>5410340615287</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="4" t="n">
+        <v>5410340615225</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="4" t="n">
+        <v>5410340612552</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="4" t="n">
+        <v>5410340613139</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="4" t="n">
+        <v>5410340615249</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="4" t="n">
+        <v>5410340612507</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" s="4" t="n">
+        <v>5410340613283</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" s="4" t="n">
+        <v>5410340615270</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" s="4" t="n">
+        <v>5410340615218</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" s="4" t="n">
+        <v>5410340613085</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" s="4" t="n">
+        <v>5410340613108</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39" s="4" t="n">
+        <v>5410340612965</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B40" s="4" t="n">
+        <v>5410340612989</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B41" s="4" t="n">
+        <v>5410340613153</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B42" s="4" t="n">
+        <v>5410340616987</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B45" s="4" t="n">
+        <v>5410340617113</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B48" s="4" t="n">
+        <v>5410340611685</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B49" s="4" t="n">
+        <v>5410340616994</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B52" s="4" t="n">
+        <v>5410340617212</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B56" s="4" t="n">
+        <v>5410340611692</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B57" s="4" t="n">
+        <v>5410340616970</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B60" s="4" t="n">
+        <v>5410340617014</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B62" s="4" t="n">
+        <v>5410340611296</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B63" s="4" t="n">
+        <v>5410340615065</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B67" s="4" t="n">
+        <v>5410340615201</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B72" s="4" t="n">
+        <v>5410340617359</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B75" s="4" t="n">
+        <v>5410340610596</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B76" s="4" t="n">
+        <v>5410340617304</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B78" s="4" t="n">
+        <v>5410340610510</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B80" s="4" t="n">
+        <v>5410340620625</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B81" s="4" t="n">
+        <v>5410340620601</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B82" s="4" t="n">
+        <v>5410340620670</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B83" s="4" t="n">
+        <v>5410340620595</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B84" s="4" t="n">
+        <v>5410340614099</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B88" s="4" t="n">
+        <v>5410340614136</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B92" s="4" t="n">
+        <v>5410340614488</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B96" s="4" t="n">
+        <v>5410340614075</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B100" s="4" t="n">
+        <v>5410340614167</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B104" s="4" t="n">
+        <v>5410340614389</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B106" s="4" t="n">
+        <v>5410340614402</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B109" s="4" t="n">
+        <v>5410340614570</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B110" s="4" t="n">
+        <v>5410340614594</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B114" s="4" t="n">
+        <v>5410340614556</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B115" s="4" t="n">
+        <v>5410340410622</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B116" s="4" t="n">
+        <v>5410340410714</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B117" s="4" t="n">
+        <v>5410340410615</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B118" s="4" t="n">
+        <v>5410340410691</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B119" s="4" t="n">
+        <v>5410340410790</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B120" s="4" t="n">
+        <v>5410340410639</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B121" s="4" t="n">
+        <v>5410340410738</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B122" s="4" t="n">
+        <v>5410340410752</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B123" s="4" t="n">
+        <v>5410340409992</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B124" s="4" t="n">
+        <v>5410340410776</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B125" s="4" t="n">
+        <v>5410340409985</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B126" s="4" t="n">
+        <v>5410340409978</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B127" s="4" t="n">
+        <v>5410340410653</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B128" s="4" t="n">
+        <v>5410340412725</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B129" s="4" t="n">
+        <v>5410340412718</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B130" s="4" t="n">
+        <v>5410340413173</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B131" s="4" t="n">
+        <v>5410340413197</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B132" s="4" t="n">
+        <v>5410340413227</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B133" s="4" t="n">
+        <v>5410340413159</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B134" s="4" t="n">
+        <v>5410340413210</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B135" s="4" t="n">
+        <v>5410340413098</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B136" s="4" t="n">
+        <v>5410340211526</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B140" s="4" t="n">
+        <v>5410340216132</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B141" s="4" t="n">
+        <v>5410340216200</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B144" s="4" t="n">
+        <v>5410340216163</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B145" s="4" t="n">
+        <v>5410340210406</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B148" s="4" t="n">
+        <v>5410340210383</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B149" s="4" t="n">
+        <v>5410340115053</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B151" s="4" t="n">
+        <v>5410340215203</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B152" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B153" s="4" t="n">
+        <v>5410340215180</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B154" s="4" t="n">
+        <v>5410340230107</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B155" s="4" t="n">
+        <v>5410340218808</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B156" s="5" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B157" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B158" s="5" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B159" s="4" t="n">
+        <v>5410340218785</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="B160" s="4" t="n">
+        <v>5410340219072</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B161" s="5" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B162" s="5" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B163" s="5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B164" s="4" t="n">
+        <v>5410340218204</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B165" s="4" t="n">
+        <v>5410340217955</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B166" s="5" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B167" s="5" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="B168" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B169" s="4" t="n">
+        <v>5410340211304</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B170" s="4" t="n">
+        <v>5410340513385</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="B171" s="4" t="n">
+        <v>5410340223543</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B172" s="4" t="n">
+        <v>5410340223093</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="B173" s="4" t="n">
+        <v>5410340223109</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="B174" s="4" t="n">
+        <v>5410340223512</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="B175" s="4" t="n">
+        <v>5410340223086</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="B176" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B177" s="5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="B178" s="4" t="n">
+        <v>5410340223529</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B179" s="4" t="n">
+        <v>5410340223239</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="B180" s="4" t="n">
+        <v>5410340223536</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="B181" s="4" t="n">
+        <v>5410340311042</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="B182" s="4" t="n">
+        <v>5410340311035</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="B183" s="4" t="n">
+        <v>5410340310885</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B184" s="4" t="n">
+        <v>5410340310878</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="B185" s="4" t="n">
+        <v>5410340311011</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="B186" s="4" t="n">
+        <v>5410340311004</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="B187" s="4" t="n">
+        <v>5410340310410</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B188" s="4" t="n">
+        <v>5410340310397</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="B189" s="4" t="n">
+        <v>5410340380178</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="B190" s="4" t="n">
+        <v>5410340380147</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="B191" s="4" t="n">
+        <v>5410340380123</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="B192" s="4" t="n">
+        <v>5410340311486</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B193" s="4" t="n">
+        <v>5410340311493</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="B194" s="4" t="n">
+        <v>5410340311349</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="B195" s="4" t="n">
+        <v>5410340311356</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="B196" s="4" t="n">
+        <v>5410340311479</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="B197" s="4" t="n">
+        <v>5410340311332</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="B198" s="4" t="n">
+        <v>5410340311639</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B199" s="4" t="n">
+        <v>5410340311622</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="B200" s="4" t="n">
+        <v>5410340310366</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="B201" s="4" t="n">
+        <v>8057438754366</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="B202" s="4" t="n">
+        <v>8057438754229</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="B203" s="4" t="n">
+        <v>8057438754298</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="B204" s="4" t="n">
+        <v>8057438754380</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="B205" s="4" t="n">
+        <v>8057438753192</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="B206" s="4" t="n">
+        <v>8057438754519</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="B207" s="4" t="n">
+        <v>8057438754076</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="B208" s="4" t="n">
+        <v>8057438754205</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="B209" s="4" t="n">
+        <v>8057438753116</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="B210" s="4" t="n">
+        <v>8057438754526</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="B211" s="4" t="n">
+        <v>8057438752195</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="B212" s="4" t="n">
+        <v>8057438752201</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="B213" s="4" t="n">
+        <v>8057438754502</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="B214" s="4" t="n">
+        <v>8057438754762</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="B215" s="4" t="n">
+        <v>8057438752218</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="B216" s="4" t="n">
+        <v>8057438752225</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="B217" s="4" t="n">
+        <v>8057438753123</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="B218" s="4" t="n">
+        <v>8057438752249</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="B219" s="4" t="n">
+        <v>8057438752256</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="B220" s="4" t="n">
+        <v>8057438752263</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="B221" s="4" t="n">
+        <v>8057438753093</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="B222" s="4" t="n">
+        <v>8057438754649</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="B223" s="4" t="n">
+        <v>8057438753024</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="B224" s="4" t="n">
+        <v>8057438754663</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="B225" s="4" t="n">
+        <v>8057438754670</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="B226" s="4" t="n">
+        <v>8057438753031</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="B227" s="4" t="n">
+        <v>8057438754687</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A228" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="B228" s="4" t="n">
+        <v>8057438754694</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="B229" s="4" t="n">
+        <v>8057438752102</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="B230" s="4" t="n">
+        <v>8057438732095</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="B231" s="4" t="n">
+        <v>8057438752119</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="B232" s="4" t="n">
+        <v>8057438754496</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="B233" s="4" t="n">
+        <v>8057438754342</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A234" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="B234" s="4" t="n">
+        <v>8057438754304</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A235" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="B235" s="4" t="n">
+        <v>8057438754458</v>
+      </c>
+    </row>
+    <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A236" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="B236" s="4" t="n">
+        <v>8057438754144</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A237" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="B237" s="4" t="n">
+        <v>8057438754014</v>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="B238" s="4" t="n">
+        <v>8057438752041</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A239" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="B239" s="4" t="n">
+        <v>8057438722096</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="B240" s="4" t="n">
+        <v>8057438752058</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="B241" s="4" t="n">
+        <v>8057438752027</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="B242" s="4" t="n">
+        <v>8057438752034</v>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A243" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B243" s="4" t="n">
+        <v>8057438752089</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A244" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="B244" s="4" t="n">
+        <v>8057438812097</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A245" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="B245" s="4" t="n">
+        <v>8057438752096</v>
+      </c>
+    </row>
+    <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A246" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="B246" s="4" t="n">
+        <v>8057438752126</v>
+      </c>
+    </row>
+    <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A247" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="B247" s="4" t="n">
+        <v>8057438742094</v>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A248" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="B248" s="4" t="n">
+        <v>8057438752133</v>
+      </c>
+    </row>
+    <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A249" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B249" s="4" t="n">
+        <v>8057438752003</v>
+      </c>
+    </row>
+    <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A250" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="B250" s="4" t="n">
+        <v>8057438752010</v>
+      </c>
+    </row>
+    <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A251" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="B251" s="4" t="n">
+        <v>8057438754465</v>
+      </c>
+    </row>
+    <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A252" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="B252" s="4" t="n">
+        <v>8057438753208</v>
+      </c>
+    </row>
+    <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A253" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="B253" s="4" t="n">
+        <v>8057438752065</v>
+      </c>
+    </row>
+    <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A254" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="B254" s="4" t="n">
+        <v>8057438752072</v>
+      </c>
+    </row>
+    <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A255" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="B255" s="4" t="n">
+        <v>8057438754489</v>
+      </c>
+    </row>
+    <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A256" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="B256" s="4" t="n">
+        <v>8057438754540</v>
+      </c>
+    </row>
+    <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A257" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="B257" s="4" t="n">
+        <v>8057438754137</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
